--- a/Martínez Cruz Norma 20212.xlsx
+++ b/Martínez Cruz Norma 20212.xlsx
@@ -1734,7 +1734,7 @@
         <v>245</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1967,7 +1967,7 @@
         <v>251</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
